--- a/data/Inventario_actual.xlsx
+++ b/data/Inventario_actual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSTULACIONES\HUMANO\EXAMEN\Desarrollo de proyecto\Pj_Manuchar-_Per-\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536F75F3-84CC-4FDB-B217-EDBD7AF76911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800ADA3F-C63A-4ED1-9C4C-378915F7374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,8 +423,8 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>500*2</f>
-        <v>1000</v>
+        <f>500</f>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
